--- a/blb_content/Design/Wealth Management Spreadsheet.xlsx
+++ b/blb_content/Design/Wealth Management Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolin\Documents\GitHub\budget-app\blb_content\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9EE78A-66E0-4A46-8663-B7077E2DDA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4135BD37-1FF3-40A8-B4B0-A7F53C4EF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="953" activeTab="1" xr2:uid="{44F07271-BE31-49C4-B21B-A05A45D3600C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="953" activeTab="6" xr2:uid="{44F07271-BE31-49C4-B21B-A05A45D3600C}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Information" sheetId="10" r:id="rId1"/>
@@ -2103,6 +2103,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="36" xfId="12" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2127,9 +2130,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -2149,16 +2149,6 @@
     <cellStyle name="Percent 3" xfId="10" xr:uid="{CD437ADC-BB36-4C56-99D0-F8306D266848}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2377,6 +2367,16 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2397,40 +2397,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CFA7062-B1E5-45B0-922D-E8099B800D06}" name="Sttate" displayName="Sttate" ref="A1:A51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CFA7062-B1E5-45B0-922D-E8099B800D06}" name="Sttate" displayName="Sttate" ref="A1:A51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" headerRowCellStyle="Heading 3">
   <autoFilter ref="A1:A51" xr:uid="{A9CA22A2-EA65-4337-92DB-E79B8ABBF6AF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D90136BB-CD55-4C1F-A50D-B6C1AF1A2FE1}" name="State_List" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D90136BB-CD55-4C1F-A50D-B6C1AF1A2FE1}" name="State_List" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A80F81DA-5643-4DFA-859D-92A677B70D39}" name="Yes_No" displayName="Yes_No" ref="C1:C3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A80F81DA-5643-4DFA-859D-92A677B70D39}" name="Yes_No" displayName="Yes_No" ref="C1:C3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" headerRowCellStyle="Heading 3">
   <autoFilter ref="C1:C3" xr:uid="{E78AE03A-3FA7-4407-9C98-BD9ACFA0767F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{81478066-6B14-42F0-AA31-8317DA381717}" name="Yes_No" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{81478066-6B14-42F0-AA31-8317DA381717}" name="Yes_No" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4A4785E-79ED-4F0F-8306-409E725B46D1}" name="Number" displayName="Number" ref="E1:E19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4A4785E-79ED-4F0F-8306-409E725B46D1}" name="Number" displayName="Number" ref="E1:E19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Heading 3">
   <autoFilter ref="E1:E19" xr:uid="{D71A0958-F503-4E1C-A0CA-4DCE0785F068}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{72B91770-AC90-48D3-B637-290C4E102FF9}" name="Number" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{72B91770-AC90-48D3-B637-290C4E102FF9}" name="Number" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{062165D6-C772-4E6A-A2A6-29147F1D29D9}" name="Table6" displayName="Table6" ref="G1:G6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{062165D6-C772-4E6A-A2A6-29147F1D29D9}" name="Table6" displayName="Table6" ref="G1:G6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" headerRowCellStyle="Heading 3">
   <autoFilter ref="G1:G6" xr:uid="{88D8BDE6-1011-4EC1-9171-C116BA206D00}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{50EDF7FF-C77C-4377-93CF-65569542C1BE}" name="Filing Types" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{50EDF7FF-C77C-4377-93CF-65569542C1BE}" name="Filing Types" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3315,16 +3315,16 @@
         <f>SavingxTaxBrkt!E3</f>
         <v>Salary</v>
       </c>
-      <c r="D3" s="219" t="str">
+      <c r="D3" s="220" t="str">
         <f>SavingxTaxBrkt!F3</f>
         <v>Tax Brackets 2021</v>
       </c>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -3340,11 +3340,11 @@
         <f>SavingxTaxBrkt!H4</f>
         <v>Top 25%</v>
       </c>
-      <c r="G4" s="219" t="str">
+      <c r="G4" s="220" t="str">
         <f>SavingxTaxBrkt!J4</f>
         <v>Top 10%</v>
       </c>
-      <c r="H4" s="219"/>
+      <c r="H4" s="220"/>
       <c r="I4" s="28" t="str">
         <f>SavingxTaxBrkt!L4</f>
         <v>Top 5%</v>
@@ -4091,16 +4091,16 @@
         <f>SavingxTaxBrkt!E3</f>
         <v>Salary</v>
       </c>
-      <c r="D3" s="219" t="str">
+      <c r="D3" s="220" t="str">
         <f>SavingxTaxBrkt!F3</f>
         <v>Tax Brackets 2021</v>
       </c>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
       <c r="L3" s="14" t="str">
         <f>SavingxTaxBrkt!O3</f>
         <v>My Income</v>
@@ -4120,11 +4120,11 @@
         <f>SavingxTaxBrkt!H4</f>
         <v>Top 25%</v>
       </c>
-      <c r="G4" s="219" t="str">
+      <c r="G4" s="220" t="str">
         <f>SavingxTaxBrkt!J4</f>
         <v>Top 10%</v>
       </c>
-      <c r="H4" s="219"/>
+      <c r="H4" s="220"/>
       <c r="I4" s="28" t="str">
         <f>SavingxTaxBrkt!L4</f>
         <v>Top 5%</v>
@@ -4375,10 +4375,10 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="220"/>
+      <c r="C16" s="221"/>
     </row>
     <row r="17" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
@@ -4995,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5319E6C-128C-4714-B2E1-9EFB1278FBB6}">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -10437,7 +10437,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I26"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10798,7 +10798,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11542,7 +11542,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="221">
+      <c r="E36" s="213">
         <f>B26/24</f>
         <v>587.7840166666665</v>
       </c>
@@ -11564,8 +11564,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11667,8 +11667,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="186">
-        <f>'Account Management'!R9</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
@@ -11681,7 +11680,7 @@
       </c>
       <c r="H5" s="49">
         <f>G5-B26</f>
-        <v>13615.381600000006</v>
+        <v>10540.840000000007</v>
       </c>
       <c r="I5" s="42"/>
     </row>
@@ -11690,8 +11689,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="186">
-        <f>'PayCheck 1'!Z16</f>
-        <v>3726.1800000000021</v>
+        <v>0</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
@@ -11721,7 +11719,7 @@
       <c r="G7" s="41"/>
       <c r="H7" s="57">
         <f>SUM(H5:H6)</f>
-        <v>13615.381600000006</v>
+        <v>10540.840000000007</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -11891,8 +11889,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="53">
-        <f>IF(SUM(B2:B4)&gt;B11,SUM(B2:B4),B11)</f>
-        <v>24800</v>
+        <v>12400</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -12180,7 +12177,7 @@
       </c>
       <c r="B23" s="141">
         <f>B22-B5-B6</f>
-        <v>52673.82</v>
+        <v>60000</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="37"/>
@@ -12219,7 +12216,7 @@
       </c>
       <c r="B24" s="140">
         <f>B23-B14</f>
-        <v>27873.82</v>
+        <v>47600</v>
       </c>
       <c r="C24" s="41"/>
       <c r="E24" s="86">
@@ -12257,7 +12254,7 @@
       </c>
       <c r="B25" s="140">
         <f>B23-B20</f>
-        <v>52673.82</v>
+        <v>60000</v>
       </c>
       <c r="C25" s="41"/>
       <c r="E25" s="90">
@@ -12295,11 +12292,11 @@
       </c>
       <c r="B26" s="140">
         <f>VLOOKUP(TaxableIncome,FederalTaxTable,4)+(TaxableIncome-VLOOKUP(TaxableIncome,FederalTaxTable,1))*VLOOKUP(TaxableIncome,FederalTaxTable,3)</f>
-        <v>3145.7383999999997</v>
-      </c>
-      <c r="C26" s="221">
+        <v>6220.28</v>
+      </c>
+      <c r="C26" s="213">
         <f>B26/24</f>
-        <v>131.07243333333332</v>
+        <v>259.17833333333334</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>52</v>
@@ -12329,9 +12326,9 @@
       </c>
       <c r="B27" s="140">
         <f>VLOOKUP(TaxableIncomeState,StateTaxTable,4)+(TaxableIncomeState-VLOOKUP(TaxableIncomeState,StateTaxTable,1))*VLOOKUP(TaxableIncomeState,StateTaxTable,3)</f>
-        <v>2687.0050999999999</v>
-      </c>
-      <c r="C27" s="221"/>
+        <v>3089.9450000000002</v>
+      </c>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
@@ -12341,7 +12338,7 @@
         <f>IF(B22&gt;137700,137700*0.062, B22*0.062)</f>
         <v>3720</v>
       </c>
-      <c r="C28" s="221">
+      <c r="C28" s="213">
         <f>B28/24</f>
         <v>155</v>
       </c>
@@ -12357,7 +12354,7 @@
         <f>B22*0.0145</f>
         <v>870</v>
       </c>
-      <c r="C29" s="221">
+      <c r="C29" s="213">
         <f>B29/24</f>
         <v>36.25</v>
       </c>
@@ -12373,7 +12370,7 @@
         <f>2000*B7</f>
         <v>2000</v>
       </c>
-      <c r="C30" s="221"/>
+      <c r="C30" s="213"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
     </row>
@@ -12383,9 +12380,9 @@
       </c>
       <c r="B31" s="142">
         <f>SUM(B26:B29)-B30</f>
-        <v>8422.7435000000005</v>
-      </c>
-      <c r="C31" s="221"/>
+        <v>11900.225</v>
+      </c>
+      <c r="C31" s="213"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
     </row>
@@ -12398,7 +12395,7 @@
       </c>
       <c r="B33" s="203">
         <f>B26/TaxableIncome</f>
-        <v>0.11285637921174779</v>
+        <v>0.13067815126050419</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -12407,7 +12404,7 @@
       </c>
       <c r="B34" s="35">
         <f>100/B24*B27</f>
-        <v>9.6398882535655321</v>
+        <v>6.4914810924369748</v>
       </c>
     </row>
   </sheetData>
@@ -12688,7 +12685,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12735,16 +12732,16 @@
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="213" t="s">
+      <c r="F3" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
       <c r="N3" s="76"/>
       <c r="O3" s="19" t="s">
         <v>30</v>
@@ -12764,10 +12761,10 @@
       <c r="I4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="214" t="s">
+      <c r="J4" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="215"/>
+      <c r="K4" s="216"/>
       <c r="L4" s="14" t="s">
         <v>21</v>
       </c>
@@ -12896,10 +12893,10 @@
         <v>0.37</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="216" t="s">
+      <c r="O9" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="216"/>
+      <c r="P9" s="217"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -13454,10 +13451,10 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="218"/>
+      <c r="C33" s="219"/>
       <c r="D33" s="12">
         <v>6000</v>
       </c>
@@ -13496,8 +13493,8 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="219"/>
       <c r="D34" s="12">
         <v>12000</v>
       </c>
@@ -13757,7 +13754,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="217" t="s">
+      <c r="B46" s="218" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="79" t="s">
@@ -13805,7 +13802,7 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="217"/>
+      <c r="B47" s="218"/>
       <c r="C47" s="80">
         <v>0</v>
       </c>
@@ -13867,7 +13864,7 @@
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="217" t="s">
+      <c r="B50" s="218" t="s">
         <v>91</v>
       </c>
       <c r="C50" s="79" t="s">
@@ -13915,7 +13912,7 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="217"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="80">
         <v>0</v>
       </c>
